--- a/523/data/na.xlsx
+++ b/523/data/na.xlsx
@@ -485,11 +485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82310272"/>
-        <c:axId val="171892096"/>
+        <c:axId val="291659136"/>
+        <c:axId val="291693696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82310272"/>
+        <c:axId val="291659136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -499,12 +499,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171892096"/>
+        <c:crossAx val="291693696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171892096"/>
+        <c:axId val="291693696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82310272"/>
+        <c:crossAx val="291659136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -712,11 +712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202884992"/>
-        <c:axId val="202886528"/>
+        <c:axId val="291935360"/>
+        <c:axId val="291936896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202884992"/>
+        <c:axId val="291935360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,12 +726,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202886528"/>
+        <c:crossAx val="291936896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202886528"/>
+        <c:axId val="291936896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202884992"/>
+        <c:crossAx val="291935360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -974,11 +974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206766464"/>
-        <c:axId val="206768384"/>
+        <c:axId val="292721024"/>
+        <c:axId val="292722560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206766464"/>
+        <c:axId val="292721024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,12 +988,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206768384"/>
+        <c:crossAx val="292722560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206768384"/>
+        <c:axId val="292722560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206766464"/>
+        <c:crossAx val="292721024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1222,11 +1222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206819712"/>
-        <c:axId val="206821632"/>
+        <c:axId val="292739328"/>
+        <c:axId val="292638720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206819712"/>
+        <c:axId val="292739328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,12 +1236,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206821632"/>
+        <c:crossAx val="292638720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206821632"/>
+        <c:axId val="292638720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206819712"/>
+        <c:crossAx val="292739328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1320,67 +1320,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.0003832945926276</c:v>
+                  <c:v>1.0003951766457093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0102280396524341</c:v>
+                  <c:v>1.010543514756292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0304594684411417</c:v>
+                  <c:v>1.0313895143232745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0608057881158077</c:v>
+                  <c:v>1.0626355151678304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0993478776529293</c:v>
+                  <c:v>1.1022851394516757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1470975373088375</c:v>
+                  <c:v>1.1513580869981328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2000359545030308</c:v>
+                  <c:v>1.2057079128943295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2613026266919449</c:v>
+                  <c:v>1.2685445306555068</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3281033544494947</c:v>
+                  <c:v>1.3369901473443999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3969200593090501</c:v>
+                  <c:v>1.4074388927466799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4714220237919506</c:v>
+                  <c:v>1.4836465994353236</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5493262703833561</c:v>
+                  <c:v>1.5632763502388183</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6321991913060121</c:v>
+                  <c:v>1.6479291085771863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.715578071700615</c:v>
+                  <c:v>1.7330490674230781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8000224876650845</c:v>
+                  <c:v>1.8192132147321267</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8862789751518727</c:v>
+                  <c:v>1.907187197947805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9752309971494473</c:v>
+                  <c:v>1.9978744513146967</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.064451764537016</c:v>
+                  <c:v>2.0888037685182397</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1583287599668406</c:v>
+                  <c:v>2.1844483416771383</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2510083420769456</c:v>
+                  <c:v>2.2788463784678421</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3411108269580061</c:v>
+                  <c:v>2.3705972274378455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,58 +1401,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>271.22565300092486</c:v>
+                  <c:v>10.858355288990694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>287.69775326749533</c:v>
+                  <c:v>11.326499688215192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>253.67960153072519</c:v>
+                  <c:v>9.7815918412779848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400.064914977017</c:v>
+                  <c:v>15.083820297834063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>404.1033448423081</c:v>
+                  <c:v>14.860851732390747</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>412.83561794188722</c:v>
+                  <c:v>14.793363338056425</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>401.18805398286935</c:v>
+                  <c:v>14.015153488066558</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>349.73588385855419</c:v>
+                  <c:v>11.902250886015437</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>268.90632099098207</c:v>
+                  <c:v>8.9167967428209494</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>254.95979978289054</c:v>
+                  <c:v>8.2354560210012693</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>192.45116662870089</c:v>
+                  <c:v>6.0624470503614747</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96.318735732428436</c:v>
+                  <c:v>2.9616996140072951</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76.063917942425121</c:v>
+                  <c:v>2.2844785384676696</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60.277185253077569</c:v>
+                  <c:v>1.7688959837286091</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74.565539629592209</c:v>
+                  <c:v>2.0928883641484455</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.821183573273188</c:v>
+                  <c:v>0.74965031745003363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,67 +1485,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.0003832945926276</c:v>
+                  <c:v>1.0003951766457093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0102280396524341</c:v>
+                  <c:v>1.010543514756292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0304594684411417</c:v>
+                  <c:v>1.0313895143232745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0608057881158077</c:v>
+                  <c:v>1.0626355151678304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0993478776529293</c:v>
+                  <c:v>1.1022851394516757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1470975373088375</c:v>
+                  <c:v>1.1513580869981328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2000359545030308</c:v>
+                  <c:v>1.2057079128943295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2613026266919449</c:v>
+                  <c:v>1.2685445306555068</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3281033544494947</c:v>
+                  <c:v>1.3369901473443999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3969200593090501</c:v>
+                  <c:v>1.4074388927466799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4714220237919506</c:v>
+                  <c:v>1.4836465994353236</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5493262703833561</c:v>
+                  <c:v>1.5632763502388183</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6321991913060121</c:v>
+                  <c:v>1.6479291085771863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.715578071700615</c:v>
+                  <c:v>1.7330490674230781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8000224876650845</c:v>
+                  <c:v>1.8192132147321267</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8862789751518727</c:v>
+                  <c:v>1.907187197947805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9752309971494473</c:v>
+                  <c:v>1.9978744513146967</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.064451764537016</c:v>
+                  <c:v>2.0888037685182397</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1583287599668406</c:v>
+                  <c:v>2.1844483416771383</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2510083420769456</c:v>
+                  <c:v>2.2788463784678421</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3411108269580061</c:v>
+                  <c:v>2.3705972274378455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,58 +1566,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.976489376257504</c:v>
+                  <c:v>2.080847375893053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.539734380162059</c:v>
+                  <c:v>1.9109822029502435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.582727804896088</c:v>
+                  <c:v>1.4877053307926722</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.003823984729451</c:v>
+                  <c:v>2.1115363666061984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.551910073485878</c:v>
+                  <c:v>1.9325901500784637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.349551223086422</c:v>
+                  <c:v>1.8042028661781988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.315943929882032</c:v>
+                  <c:v>1.6180069587757435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.381564682894513</c:v>
+                  <c:v>1.3062057207672673</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.184396482543185</c:v>
+                  <c:v>0.93458024276916596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.594710034552314</c:v>
+                  <c:v>0.82673468146479323</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.584992711512978</c:v>
+                  <c:v>0.58544999346394411</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.9766960677636067</c:v>
+                  <c:v>0.27602394359506993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.8576162665727045</c:v>
+                  <c:v>0.20595937745266049</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2658392038014012</c:v>
+                  <c:v>0.15453146624973457</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1473444410880136</c:v>
+                  <c:v>0.17254224558793141</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1802605187468145</c:v>
+                  <c:v>5.8747787839352222E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,11 +1632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284018944"/>
-        <c:axId val="285495296"/>
+        <c:axId val="292665984"/>
+        <c:axId val="292675968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284018944"/>
+        <c:axId val="292665984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,12 +1646,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285495296"/>
+        <c:crossAx val="292675968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285495296"/>
+        <c:axId val="292675968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284018944"/>
+        <c:crossAx val="292665984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1734,67 +1734,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.0003832945926276</c:v>
+                  <c:v>1.0003951766457093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0102280396524341</c:v>
+                  <c:v>1.010543514756292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0304594684411417</c:v>
+                  <c:v>1.0313895143232745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0608057881158077</c:v>
+                  <c:v>1.0626355151678304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0993478776529293</c:v>
+                  <c:v>1.1022851394516757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1470975373088375</c:v>
+                  <c:v>1.1513580869981328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2000359545030308</c:v>
+                  <c:v>1.2057079128943295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2613026266919449</c:v>
+                  <c:v>1.2685445306555068</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3281033544494947</c:v>
+                  <c:v>1.3369901473443999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3969200593090501</c:v>
+                  <c:v>1.4074388927466799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4714220237919506</c:v>
+                  <c:v>1.4836465994353236</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5493262703833561</c:v>
+                  <c:v>1.5632763502388183</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6321991913060121</c:v>
+                  <c:v>1.6479291085771863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.715578071700615</c:v>
+                  <c:v>1.7330490674230781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8000224876650845</c:v>
+                  <c:v>1.8192132147321267</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8862789751518727</c:v>
+                  <c:v>1.907187197947805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9752309971494473</c:v>
+                  <c:v>1.9978744513146967</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.064451764537016</c:v>
+                  <c:v>2.0888037685182397</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1583287599668406</c:v>
+                  <c:v>2.1844483416771383</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2510083420769456</c:v>
+                  <c:v>2.2788463784678421</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3411108269580061</c:v>
+                  <c:v>2.3705972274378455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,58 +1815,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.976489376257504</c:v>
+                  <c:v>2.080847375893053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.539734380162059</c:v>
+                  <c:v>1.9109822029502435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.582727804896088</c:v>
+                  <c:v>1.4877053307926722</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.003823984729451</c:v>
+                  <c:v>2.1115363666061984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.551910073485878</c:v>
+                  <c:v>1.9325901500784637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.349551223086422</c:v>
+                  <c:v>1.8042028661781988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.315943929882032</c:v>
+                  <c:v>1.6180069587757435</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.381564682894513</c:v>
+                  <c:v>1.3062057207672673</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.184396482543185</c:v>
+                  <c:v>0.93458024276916596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25.594710034552314</c:v>
+                  <c:v>0.82673468146479323</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.584992711512978</c:v>
+                  <c:v>0.58544999346394411</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.9766960677636067</c:v>
+                  <c:v>0.27602394359506993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.8576162665727045</c:v>
+                  <c:v>0.20595937745266049</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2658392038014012</c:v>
+                  <c:v>0.15453146624973457</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1473444410880136</c:v>
+                  <c:v>0.17254224558793141</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1802605187468145</c:v>
+                  <c:v>5.8747787839352222E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,11 +1881,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="287949184"/>
-        <c:axId val="287950720"/>
+        <c:axId val="292681216"/>
+        <c:axId val="292682752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="287949184"/>
+        <c:axId val="292681216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,12 +1895,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287950720"/>
+        <c:crossAx val="292682752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="287950720"/>
+        <c:axId val="292682752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,7 +1911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="287949184"/>
+        <c:crossAx val="292681216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1979,67 +1979,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.0003832945926276</c:v>
+                  <c:v>1.0003951766457093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0102280396524341</c:v>
+                  <c:v>1.010543514756292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0304594684411417</c:v>
+                  <c:v>1.0313895143232745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0608057881158077</c:v>
+                  <c:v>1.0626355151678304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0993478776529293</c:v>
+                  <c:v>1.1022851394516757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1470975373088375</c:v>
+                  <c:v>1.1513580869981328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2000359545030308</c:v>
+                  <c:v>1.2057079128943295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2613026266919449</c:v>
+                  <c:v>1.2685445306555068</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3281033544494947</c:v>
+                  <c:v>1.3369901473443999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3969200593090501</c:v>
+                  <c:v>1.4074388927466799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4714220237919506</c:v>
+                  <c:v>1.4836465994353236</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5493262703833561</c:v>
+                  <c:v>1.5632763502388183</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6321991913060121</c:v>
+                  <c:v>1.6479291085771863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.715578071700615</c:v>
+                  <c:v>1.7330490674230781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8000224876650845</c:v>
+                  <c:v>1.8192132147321267</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8862789751518727</c:v>
+                  <c:v>1.907187197947805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9752309971494473</c:v>
+                  <c:v>1.9978744513146967</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.064451764537016</c:v>
+                  <c:v>2.0888037685182397</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1583287599668406</c:v>
+                  <c:v>2.1844483416771383</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2510083420769456</c:v>
+                  <c:v>2.2788463784678421</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3411108269580061</c:v>
+                  <c:v>2.3705972274378455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,67 +2051,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.8410455016616717E-5</c:v>
+                  <c:v>4.9910872758112249E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4824590085676968E-4</c:v>
+                  <c:v>2.5586309149129327E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2209484475179307E-4</c:v>
+                  <c:v>4.3478986097428724E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8363019496221122E-4</c:v>
+                  <c:v>6.0069008630214303E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2655584262629408E-4</c:v>
+                  <c:v>7.4708728867245737E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5686199403225906E-4</c:v>
+                  <c:v>8.8016069317752531E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6684599407437135E-4</c:v>
+                  <c:v>9.9213462610965803E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0658953580893605E-3</c:v>
+                  <c:v>1.0926707353438752E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1509520470647852E-3</c:v>
+                  <c:v>1.1787509459430399E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2212072805007702E-3</c:v>
+                  <c:v>1.2496619550390283E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.282991496183519E-3</c:v>
+                  <c:v>1.3118727838324401E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3358806214694432E-3</c:v>
+                  <c:v>1.3650103199064783E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3822793657787113E-3</c:v>
+                  <c:v>1.4115348858513496E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4211234687108428E-3</c:v>
+                  <c:v>1.450416049801287E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4542416068076176E-3</c:v>
+                  <c:v>1.4835153776870441E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4829656515570166E-3</c:v>
+                  <c:v>1.5121847395540922E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5082691243810146E-3</c:v>
+                  <c:v>1.5374099861507025E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5300910950960022E-3</c:v>
+                  <c:v>1.5591415423861729E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5499212377956073E-3</c:v>
+                  <c:v>1.5788708475323739E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5669122652294165E-3</c:v>
+                  <c:v>1.5957611690246537E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5813880092422807E-3</c:v>
+                  <c:v>1.6101405986254167E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,67 +2144,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.0003832945926276</c:v>
+                  <c:v>1.0003951766457093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0102280396524341</c:v>
+                  <c:v>1.010543514756292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0304594684411417</c:v>
+                  <c:v>1.0313895143232745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0608057881158077</c:v>
+                  <c:v>1.0626355151678304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0993478776529293</c:v>
+                  <c:v>1.1022851394516757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1470975373088375</c:v>
+                  <c:v>1.1513580869981328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2000359545030308</c:v>
+                  <c:v>1.2057079128943295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2613026266919449</c:v>
+                  <c:v>1.2685445306555068</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3281033544494947</c:v>
+                  <c:v>1.3369901473443999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3969200593090501</c:v>
+                  <c:v>1.4074388927466799</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4714220237919506</c:v>
+                  <c:v>1.4836465994353236</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5493262703833561</c:v>
+                  <c:v>1.5632763502388183</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6321991913060121</c:v>
+                  <c:v>1.6479291085771863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.715578071700615</c:v>
+                  <c:v>1.7330490674230781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8000224876650845</c:v>
+                  <c:v>1.8192132147321267</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8862789751518727</c:v>
+                  <c:v>1.907187197947805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9752309971494473</c:v>
+                  <c:v>1.9978744513146967</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.064451764537016</c:v>
+                  <c:v>2.0888037685182397</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1583287599668406</c:v>
+                  <c:v>2.1844483416771383</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2510083420769456</c:v>
+                  <c:v>2.2788463784678421</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3411108269580061</c:v>
+                  <c:v>2.3705972274378455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2225,58 +2225,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>185.04660165497506</c:v>
+                  <c:v>7.4501493822983305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212.88850606830263</c:v>
+                  <c:v>8.4155260471925697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>197.14059712365022</c:v>
+                  <c:v>7.6251236423302693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>320.5253237423081</c:v>
+                  <c:v>12.114829945263388</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>330.89253498074896</c:v>
+                  <c:v>12.192987857507759</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>343.34667157373082</c:v>
+                  <c:v>12.323803604747672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>337.39927382694674</c:v>
+                  <c:v>11.803353116586731</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>296.71192059962965</c:v>
+                  <c:v>10.109875150507857</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>229.69738543164669</c:v>
+                  <c:v>7.6245497639488269</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>218.9924481615412</c:v>
+                  <c:v>7.0800431829732222</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>166.02117664100692</c:v>
+                  <c:v>5.2340044608476921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83.383178418139906</c:v>
+                  <c:v>2.5657401779135003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66.040660368949574</c:v>
+                  <c:v>1.9846812935402924</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52.463656961204862</c:v>
+                  <c:v>1.5404602401019358</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65.152421056511045</c:v>
+                  <c:v>1.8295138419282235</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.377049148769757</c:v>
+                  <c:v>0.65709517362918624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,11 +2291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196202496"/>
-        <c:axId val="196122880"/>
+        <c:axId val="293200256"/>
+        <c:axId val="293201792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196202496"/>
+        <c:axId val="293200256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,12 +2305,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196122880"/>
+        <c:crossAx val="293201792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196122880"/>
+        <c:axId val="293201792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2321,7 +2321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196202496"/>
+        <c:crossAx val="293200256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2368,6 +2368,255 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="7"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ti!$AA$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fermi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ti!$S$5:$S$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.0003951766457093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.010543514756292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0313895143232745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0626355151678304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1022851394516757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1513580869981328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2057079128943295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2685445306555068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3369901473443999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4074388927466799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4836465994353236</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5632763502388183</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6479291085771863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7330490674230781</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8192132147321267</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.907187197947805</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9978744513146967</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0888037685182397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1844483416771383</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2788463784678421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3705972274378455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ti!$AA$5:$AA$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.3356414468585731E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13765817864380719</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34001120882401276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47076250599523478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55204070562128082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60767966902097359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64507757579307323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67318259704431727</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69399395771806405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70927570356967229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72149509658004651</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73115705097237815</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73908860836880041</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74537060214434148</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75048727442789132</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75475741389993944</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75839663124398315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76144710049855546</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76415115248489496</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7664182878509419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76831461792184952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="79820288"/>
+        <c:axId val="79796864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="79820288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79796864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="79796864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79820288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -2540,11 +2789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="289542144"/>
-        <c:axId val="289544064"/>
+        <c:axId val="293269888"/>
+        <c:axId val="293271424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="289542144"/>
+        <c:axId val="293269888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,12 +2803,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289544064"/>
+        <c:crossAx val="293271424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289544064"/>
+        <c:axId val="293271424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289542144"/>
+        <c:crossAx val="293269888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2811,6 +3060,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>186019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>711574</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3996,14 +4275,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="U3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:32" x14ac:dyDescent="0.25">
@@ -4149,23 +4429,23 @@
         <v>0.13453624047073712</v>
       </c>
       <c r="Q5">
-        <f>ABS(O5*0.013)</f>
-        <v>2.7689999999999996E-2</v>
+        <f>ABS(O5*0.0132)</f>
+        <v>2.8115999999999999E-2</v>
       </c>
       <c r="R5">
-        <f>P5*0.013</f>
-        <v>1.7489711261195824E-3</v>
+        <f>P5*0.0132</f>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S5">
         <f>SQRT(Q5^2+1)</f>
-        <v>1.0003832945926276</v>
+        <v>1.0003951766457093</v>
       </c>
       <c r="T5">
         <f>ABS(Q5/S5*R5)</f>
-        <v>4.8410455016616717E-5</v>
+        <v>4.9910872758112249E-5</v>
       </c>
       <c r="U5">
-        <f>SQRT(M5/Q5/R5)</f>
+        <f t="shared" ref="U5:U24" si="0">SQRT(M5/Q5/S5)</f>
         <v>0</v>
       </c>
       <c r="V5">
@@ -4174,27 +4454,27 @@
       </c>
       <c r="W5">
         <f>Q5/S5</f>
-        <v>2.7679390639240745E-2</v>
+        <v>2.8104893602418177E-2</v>
       </c>
       <c r="X5">
         <f>W5*SQRT((R5/Q5)^2+(T5/S5)^2)</f>
-        <v>1.7483015249075678E-3</v>
+        <v>1.7751774195570258E-3</v>
       </c>
       <c r="Y5">
         <f>-1/137*10/W5</f>
-        <v>-2.6370775889280638</v>
+        <v>-2.5971527151999831</v>
       </c>
       <c r="Z5">
         <f>ABS(Y5*X5/W5)</f>
-        <v>0.16656460505623943</v>
+        <v>0.1640428503443096</v>
       </c>
       <c r="AA5">
         <f>2*PI()*Y5/(1-EXP(-2*PI()*Y5))</f>
-        <v>1.0552860393618827E-6</v>
+        <v>1.3356414468585731E-6</v>
       </c>
       <c r="AB5">
-        <f>(2*PI()*(1-EXP(-2*PI()*Y5))-2*PI()^2*Y5*EXP(-2*PI()*Y5))/(1-EXP(-2*PI()*Y5))^2*Z5</f>
-        <v>4.8555356935280572E-7</v>
+        <f>ABS((2*PI()*(1-EXP(-2*PI()*Y5))-2*PI()^2*Y5*EXP(-2*PI()*Y5))/(1-EXP(-2*PI()*Y5))^2*Z5)</f>
+        <v>6.0396808913788662E-7</v>
       </c>
       <c r="AC5">
         <f>U5/SQRT(AA5)</f>
@@ -4205,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <f t="shared" ref="AE5:AE25" si="0">AC5/SQRT(O5)</f>
+        <f t="shared" ref="AE5:AE25" si="1">AC5/SQRT(O5)</f>
         <v>0</v>
       </c>
       <c r="AF5">
@@ -4236,7 +4516,7 @@
         <v>46</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J25" si="1">SQRT(I6)</f>
+        <f t="shared" ref="J6:J25" si="2">SQRT(I6)</f>
         <v>6.7823299831252681</v>
       </c>
       <c r="K6">
@@ -4248,39 +4528,39 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M25" si="2">MAX(0,I6-K6)</f>
+        <f t="shared" ref="M6:M25" si="3">MAX(0,I6-K6)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N25" si="3">SQRT(J6^2+L6^2)</f>
+        <f t="shared" ref="N6:N25" si="4">SQRT(J6^2+L6^2)</f>
         <v>7.507329751649384</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O25" si="4">ABS(E6-G6)</f>
+        <f t="shared" ref="O6:O25" si="5">ABS(E6-G6)</f>
         <v>11.030000000000001</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P25" si="5">SQRT(F6^2+H6^2)</f>
+        <f t="shared" ref="P6:P25" si="6">SQRT(F6^2+H6^2)</f>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q25" si="6">ABS(O6*0.013)</f>
-        <v>0.14339000000000002</v>
+        <f t="shared" ref="Q6:Q25" si="7">ABS(O6*0.0132)</f>
+        <v>0.145596</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:R25" si="7">P6*0.013</f>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" ref="R6:R25" si="8">P6*0.0132</f>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S25" si="8">SQRT(Q6^2+1)</f>
-        <v>1.0102280396524341</v>
+        <f t="shared" ref="S6:S25" si="9">SQRT(Q6^2+1)</f>
+        <v>1.010543514756292</v>
       </c>
       <c r="T6">
-        <f t="shared" ref="T6:T25" si="9">ABS(Q6/S6*R6)</f>
-        <v>2.4824590085676968E-4</v>
+        <f t="shared" ref="T6:T25" si="10">ABS(Q6/S6*R6)</f>
+        <v>2.5586309149129327E-4</v>
       </c>
       <c r="U6">
-        <f t="shared" ref="U6:U25" si="10">SQRT(M6/Q6/R6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V6">
@@ -4289,27 +4569,27 @@
       </c>
       <c r="W6">
         <f t="shared" ref="W6:W25" si="12">Q6/S6</f>
-        <v>0.141938249951301</v>
+        <v>0.14407692283801624</v>
       </c>
       <c r="X6">
         <f t="shared" ref="X6:X25" si="13">W6*SQRT((R6/Q6)^2+(T6/S6)^2)</f>
-        <v>1.7316149995426212E-3</v>
+        <v>1.7577283126591564E-3</v>
       </c>
       <c r="Y6">
         <f t="shared" ref="Y6:Y25" si="14">-1/137*10/W6</f>
-        <v>-0.51425673315664233</v>
+        <v>-0.50662312389883368</v>
       </c>
       <c r="Z6">
         <f t="shared" ref="Z6:Z25" si="15">ABS(Y6*X6/W6)</f>
-        <v>6.2738174738335697E-3</v>
+        <v>6.1807664349272052E-3</v>
       </c>
       <c r="AA6">
         <f t="shared" ref="AA6:AA25" si="16">2*PI()*Y6/(1-EXP(-2*PI()*Y6))</f>
-        <v>0.13291931985733604</v>
+        <v>0.13765817864380719</v>
       </c>
       <c r="AB6">
-        <f t="shared" ref="AB6:AB25" si="17">(2*PI()*(1-EXP(-2*PI()*Y6))-2*PI()^2*Y6*EXP(-2*PI()*Y6))/(1-EXP(-2*PI()*Y6))^2*Z6</f>
-        <v>1.1059943988893581E-3</v>
+        <f t="shared" ref="AB6:AB25" si="17">ABS((2*PI()*(1-EXP(-2*PI()*Y6))-2*PI()^2*Y6*EXP(-2*PI()*Y6))/(1-EXP(-2*PI()*Y6))^2*Z6)</f>
+        <v>1.1091437290568771E-3</v>
       </c>
       <c r="AC6">
         <f t="shared" ref="AC6:AC25" si="18">U6/SQRT(AA6)</f>
@@ -4320,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF6">
@@ -4351,7 +4631,7 @@
         <v>42</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4807406984078604</v>
       </c>
       <c r="K7">
@@ -4363,39 +4643,39 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2360210060502173</v>
       </c>
       <c r="O7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.13</v>
       </c>
       <c r="P7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="6"/>
-        <v>0.24868999999999997</v>
+        <f t="shared" si="7"/>
+        <v>0.25251599999999996</v>
       </c>
       <c r="R7">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S7">
-        <f t="shared" si="8"/>
-        <v>1.0304594684411417</v>
+        <f t="shared" si="9"/>
+        <v>1.0313895143232745</v>
       </c>
       <c r="T7">
-        <f t="shared" si="9"/>
-        <v>4.2209484475179307E-4</v>
+        <f t="shared" si="10"/>
+        <v>4.3478986097428724E-4</v>
       </c>
       <c r="U7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V7">
@@ -4404,27 +4684,27 @@
       </c>
       <c r="W7">
         <f t="shared" si="12"/>
-        <v>0.24133894405008785</v>
+        <v>0.24483087765894465</v>
       </c>
       <c r="X7">
         <f t="shared" si="13"/>
-        <v>1.7001495842014535E-3</v>
+        <v>1.7249214866853161E-3</v>
       </c>
       <c r="Y7">
         <f t="shared" si="14"/>
-        <v>-0.30244891066888063</v>
+        <v>-0.29813519204717143</v>
       </c>
       <c r="Z7">
         <f t="shared" si="15"/>
-        <v>2.1306482123712297E-3</v>
+        <v>2.1004695307084409E-3</v>
       </c>
       <c r="AA7">
         <f t="shared" si="16"/>
-        <v>0.33408591995662595</v>
+        <v>0.34001120882401276</v>
       </c>
       <c r="AB7">
         <f t="shared" si="17"/>
-        <v>2.7586605135188324E-4</v>
+        <v>2.5542014688043708E-4</v>
       </c>
       <c r="AC7">
         <f t="shared" si="18"/>
@@ -4435,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF7">
@@ -4466,7 +4746,7 @@
         <v>73</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5440037453175304</v>
       </c>
       <c r="K8">
@@ -4478,84 +4758,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.200000000000003</v>
       </c>
       <c r="N8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.1301697684106617</v>
       </c>
       <c r="O8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.23</v>
       </c>
       <c r="P8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="6"/>
-        <v>0.35398999999999997</v>
+        <f t="shared" si="7"/>
+        <v>0.35943599999999998</v>
       </c>
       <c r="R8">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S8">
-        <f t="shared" si="8"/>
-        <v>1.0608057881158077</v>
+        <f t="shared" si="9"/>
+        <v>1.0626355151678304</v>
       </c>
       <c r="T8">
-        <f t="shared" si="9"/>
-        <v>5.8363019496221122E-4</v>
+        <f t="shared" si="10"/>
+        <v>6.0069008630214303E-4</v>
       </c>
       <c r="U8">
-        <f t="shared" si="10"/>
-        <v>185.04660165497506</v>
+        <f t="shared" si="0"/>
+        <v>7.4501493822983305</v>
       </c>
       <c r="V8">
         <f t="shared" si="11"/>
-        <v>39.849515170146645</v>
+        <v>1.6043788519183229</v>
       </c>
       <c r="W8">
         <f t="shared" si="12"/>
-        <v>0.33369915960654151</v>
+        <v>0.33824956428567271</v>
       </c>
       <c r="X8">
         <f t="shared" si="13"/>
-        <v>1.6589099793720421E-3</v>
+        <v>1.6821044762606952E-3</v>
       </c>
       <c r="Y8">
         <f t="shared" si="14"/>
-        <v>-0.2187380418218354</v>
+        <v>-0.21579540208448028</v>
       </c>
       <c r="Z8">
         <f t="shared" si="15"/>
-        <v>1.0874067554571946E-3</v>
+        <v>1.0731437675887527E-3</v>
       </c>
       <c r="AA8">
         <f t="shared" si="16"/>
-        <v>0.4654796515988453</v>
+        <v>0.47076250599523478</v>
       </c>
       <c r="AB8">
         <f t="shared" si="17"/>
-        <v>-1.8529419925053658E-4</v>
+        <v>2.0291957733812444E-4</v>
       </c>
       <c r="AC8">
         <f t="shared" si="18"/>
-        <v>271.22565300092486</v>
+        <v>10.858355288990694</v>
       </c>
       <c r="AD8">
         <f t="shared" si="19"/>
-        <v>58.408072850381387</v>
+        <v>2.338332216287724</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="0"/>
-        <v>51.976489376257504</v>
+        <f t="shared" si="1"/>
+        <v>2.080847375893053</v>
       </c>
       <c r="AF8">
         <f t="shared" si="20"/>
-        <v>11.19380224106037</v>
+        <v>0.44813716880652155</v>
       </c>
     </row>
     <row r="9" spans="3:32" x14ac:dyDescent="0.25">
@@ -4581,7 +4861,7 @@
         <v>88</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.3808315196468595</v>
       </c>
       <c r="K9">
@@ -4593,84 +4873,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.200000000000003</v>
       </c>
       <c r="N9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9176610145739499</v>
       </c>
       <c r="O9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35.130000000000003</v>
       </c>
       <c r="P9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="6"/>
-        <v>0.45668999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.46371600000000002</v>
       </c>
       <c r="R9">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S9">
-        <f t="shared" si="8"/>
-        <v>1.0993478776529293</v>
+        <f t="shared" si="9"/>
+        <v>1.1022851394516757</v>
       </c>
       <c r="T9">
-        <f t="shared" si="9"/>
-        <v>7.2655584262629408E-4</v>
+        <f t="shared" si="10"/>
+        <v>7.4708728867245737E-4</v>
       </c>
       <c r="U9">
-        <f t="shared" si="10"/>
-        <v>212.88850606830263</v>
+        <f t="shared" si="0"/>
+        <v>8.4155260471925697</v>
       </c>
       <c r="V9">
         <f t="shared" si="11"/>
-        <v>29.16531004681628</v>
+        <v>1.1529108255382503</v>
       </c>
       <c r="W9">
         <f t="shared" si="12"/>
-        <v>0.41541900365061674</v>
+        <v>0.42068606697417005</v>
       </c>
       <c r="X9">
         <f t="shared" si="13"/>
-        <v>1.6144329910864185E-3</v>
+        <v>1.6361237523294303E-3</v>
       </c>
       <c r="Y9">
         <f t="shared" si="14"/>
-        <v>-0.17570862211040458</v>
+        <v>-0.17350871935202153</v>
       </c>
       <c r="Z9">
         <f t="shared" si="15"/>
-        <v>6.8285223800678796E-4</v>
+        <v>6.74806605814054E-4</v>
       </c>
       <c r="AA9">
         <f t="shared" si="16"/>
-        <v>0.54755971402568804</v>
+        <v>0.55204070562128082</v>
       </c>
       <c r="AB9">
         <f t="shared" si="17"/>
-        <v>-3.7072447785845415E-4</v>
+        <v>3.8406550659312525E-4</v>
       </c>
       <c r="AC9">
         <f t="shared" si="18"/>
-        <v>287.69775326749533</v>
+        <v>11.326499688215192</v>
       </c>
       <c r="AD9">
         <f t="shared" si="19"/>
-        <v>39.414151310864575</v>
+        <v>1.5517135980227141</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="0"/>
-        <v>48.539734380162059</v>
+        <f t="shared" si="1"/>
+        <v>1.9109822029502435</v>
       </c>
       <c r="AF9">
         <f t="shared" si="20"/>
-        <v>6.6505187449850824</v>
+        <v>0.26182728859130633</v>
       </c>
     </row>
     <row r="10" spans="3:32" x14ac:dyDescent="0.25">
@@ -4696,7 +4976,7 @@
         <v>90</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4868329805051381</v>
       </c>
       <c r="K10">
@@ -4708,84 +4988,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.200000000000003</v>
       </c>
       <c r="N10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.017983829094554</v>
       </c>
       <c r="O10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43.230000000000004</v>
       </c>
       <c r="P10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="6"/>
-        <v>0.56198999999999999</v>
+        <f t="shared" si="7"/>
+        <v>0.57063600000000003</v>
       </c>
       <c r="R10">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S10">
-        <f t="shared" si="8"/>
-        <v>1.1470975373088375</v>
+        <f t="shared" si="9"/>
+        <v>1.1513580869981328</v>
       </c>
       <c r="T10">
-        <f t="shared" si="9"/>
-        <v>8.5686199403225906E-4</v>
+        <f t="shared" si="10"/>
+        <v>8.8016069317752531E-4</v>
       </c>
       <c r="U10">
-        <f t="shared" si="10"/>
-        <v>197.14059712365022</v>
+        <f t="shared" si="0"/>
+        <v>7.6251236423302693</v>
       </c>
       <c r="V10">
         <f t="shared" si="11"/>
-        <v>25.852073030541277</v>
+        <v>0.9999223598964827</v>
       </c>
       <c r="W10">
         <f t="shared" si="12"/>
-        <v>0.48992346485065574</v>
+        <v>0.49561991742098688</v>
       </c>
       <c r="X10">
         <f t="shared" si="13"/>
-        <v>1.5679979029949453E-3</v>
+        <v>1.5882727407708476E-3</v>
       </c>
       <c r="Y10">
         <f t="shared" si="14"/>
-        <v>-0.14898796642079085</v>
+        <v>-0.14727555968644804</v>
       </c>
       <c r="Z10">
         <f t="shared" si="15"/>
-        <v>4.76835333842387E-4</v>
+        <v>4.7196197854386385E-4</v>
       </c>
       <c r="AA10">
         <f t="shared" si="16"/>
-        <v>0.60392226563040552</v>
+        <v>0.60767966902097359</v>
       </c>
       <c r="AB10">
         <f t="shared" si="17"/>
-        <v>-4.4451574840352419E-4</v>
+        <v>4.546753102432975E-4</v>
       </c>
       <c r="AC10">
         <f t="shared" si="18"/>
-        <v>253.67960153072519</v>
+        <v>9.7815918412779848</v>
       </c>
       <c r="AD10">
         <f t="shared" si="19"/>
-        <v>33.266458087303086</v>
+        <v>1.2827165378253556</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="0"/>
-        <v>38.582727804896088</v>
+        <f t="shared" si="1"/>
+        <v>1.4877053307926722</v>
       </c>
       <c r="AF10">
         <f t="shared" si="20"/>
-        <v>5.0599301100881311</v>
+        <v>0.19510511203572969</v>
       </c>
     </row>
     <row r="11" spans="3:32" x14ac:dyDescent="0.25">
@@ -4811,7 +5091,7 @@
         <v>171</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.076696830622021</v>
       </c>
       <c r="K11">
@@ -4823,84 +5103,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>119.2</v>
       </c>
       <c r="N11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.466996695625941</v>
       </c>
       <c r="O11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.03</v>
       </c>
       <c r="P11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="6"/>
-        <v>0.66339000000000004</v>
+        <f t="shared" si="7"/>
+        <v>0.67359599999999997</v>
       </c>
       <c r="R11">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S11">
-        <f t="shared" si="8"/>
-        <v>1.2000359545030308</v>
+        <f t="shared" si="9"/>
+        <v>1.2057079128943295</v>
       </c>
       <c r="T11">
-        <f t="shared" si="9"/>
-        <v>9.6684599407437135E-4</v>
+        <f t="shared" si="10"/>
+        <v>9.9213462610965803E-4</v>
       </c>
       <c r="U11">
-        <f t="shared" si="10"/>
-        <v>320.5253237423081</v>
+        <f t="shared" si="0"/>
+        <v>12.114829945263388</v>
       </c>
       <c r="V11">
         <f t="shared" si="11"/>
-        <v>18.111570151167633</v>
+        <v>0.68456005364172534</v>
       </c>
       <c r="W11">
         <f t="shared" si="12"/>
-        <v>0.55280843670615587</v>
+        <v>0.55867262111850735</v>
       </c>
       <c r="X11">
         <f t="shared" si="13"/>
-        <v>1.5239680306816548E-3</v>
+        <v>1.5429672871891335E-3</v>
       </c>
       <c r="Y11">
         <f t="shared" si="14"/>
-        <v>-0.13203977342467027</v>
+        <v>-0.13065379968645996</v>
       </c>
       <c r="Z11">
         <f t="shared" si="15"/>
-        <v>3.6400383951558081E-4</v>
+        <v>3.6084556722962578E-4</v>
       </c>
       <c r="AA11">
         <f t="shared" si="16"/>
-        <v>0.64189465995948625</v>
+        <v>0.64507757579307323</v>
       </c>
       <c r="AB11">
         <f t="shared" si="17"/>
-        <v>-4.675837274364618E-4</v>
+        <v>4.7568872060011299E-4</v>
       </c>
       <c r="AC11">
         <f t="shared" si="18"/>
-        <v>400.064914977017</v>
+        <v>15.083820297834063</v>
       </c>
       <c r="AD11">
         <f t="shared" si="19"/>
-        <v>22.606495513622303</v>
+        <v>0.85234383776332867</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="0"/>
-        <v>56.003823984729451</v>
+        <f t="shared" si="1"/>
+        <v>2.1115363666061984</v>
       </c>
       <c r="AF11">
         <f t="shared" si="20"/>
-        <v>3.1654728928020197</v>
+        <v>0.11934938388826141</v>
       </c>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.25">
@@ -4926,7 +5206,7 @@
         <v>199</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.106735979665885</v>
       </c>
       <c r="K12">
@@ -4938,84 +5218,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147.19999999999999</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.469277798148738</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.13</v>
       </c>
       <c r="P12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="6"/>
-        <v>0.76868999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.78051599999999999</v>
       </c>
       <c r="R12">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S12">
-        <f t="shared" si="8"/>
-        <v>1.2613026266919449</v>
+        <f t="shared" si="9"/>
+        <v>1.2685445306555068</v>
       </c>
       <c r="T12">
-        <f t="shared" si="9"/>
-        <v>1.0658953580893605E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.0926707353438752E-3</v>
       </c>
       <c r="U12">
-        <f t="shared" si="10"/>
-        <v>330.89253498074896</v>
+        <f t="shared" si="0"/>
+        <v>12.192987857507759</v>
       </c>
       <c r="V12">
         <f t="shared" si="11"/>
-        <v>16.267783001664444</v>
+        <v>0.59944889855086969</v>
       </c>
       <c r="W12">
         <f t="shared" si="12"/>
-        <v>0.60944136936911453</v>
+        <v>0.61528466769446144</v>
       </c>
       <c r="X12">
         <f t="shared" si="13"/>
-        <v>1.4791945381405372E-3</v>
+        <v>1.4968946963146395E-3</v>
       </c>
       <c r="Y12">
         <f t="shared" si="14"/>
-        <v>-0.11976984891177975</v>
+        <v>-0.11863240636799643</v>
       </c>
       <c r="Z12">
         <f t="shared" si="15"/>
-        <v>2.9069721100098375E-4</v>
+        <v>2.8861473270365944E-4</v>
       </c>
       <c r="AA12">
         <f t="shared" si="16"/>
-        <v>0.67048497258101303</v>
+        <v>0.67318259704431727</v>
       </c>
       <c r="AB12">
         <f t="shared" si="17"/>
-        <v>-4.6947484472176904E-4</v>
+        <v>4.7611733190108167E-4</v>
       </c>
       <c r="AC12">
         <f t="shared" si="18"/>
-        <v>404.1033448423081</v>
+        <v>14.860851732390747</v>
       </c>
       <c r="AD12">
         <f t="shared" si="19"/>
-        <v>19.867574850752419</v>
+        <v>0.73062909251878327</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="0"/>
-        <v>52.551910073485878</v>
+        <f t="shared" si="1"/>
+        <v>1.9325901500784637</v>
       </c>
       <c r="AF12">
         <f t="shared" si="20"/>
-        <v>2.5843846517132585</v>
+        <v>9.5040618948918507E-2</v>
       </c>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.25">
@@ -5041,7 +5321,7 @@
         <v>232</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.231546211727817</v>
       </c>
       <c r="K13">
@@ -5053,84 +5333,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180.2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.5679157243351</v>
       </c>
       <c r="O13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.23</v>
       </c>
       <c r="P13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="6"/>
-        <v>0.87399000000000004</v>
+        <f t="shared" si="7"/>
+        <v>0.887436</v>
       </c>
       <c r="R13">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S13">
-        <f t="shared" si="8"/>
-        <v>1.3281033544494947</v>
+        <f t="shared" si="9"/>
+        <v>1.3369901473443999</v>
       </c>
       <c r="T13">
-        <f t="shared" si="9"/>
-        <v>1.1509520470647852E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.1787509459430399E-3</v>
       </c>
       <c r="U13">
-        <f t="shared" si="10"/>
-        <v>343.34667157373082</v>
+        <f t="shared" si="0"/>
+        <v>12.323803604747672</v>
       </c>
       <c r="V13">
         <f t="shared" si="11"/>
-        <v>14.836000702011997</v>
+        <v>0.53251216845133353</v>
       </c>
       <c r="W13">
         <f t="shared" si="12"/>
-        <v>0.65807378399572913</v>
+        <v>0.66375657424452383</v>
       </c>
       <c r="X13">
         <f t="shared" si="13"/>
-        <v>1.4350771214797435E-3</v>
+        <v>1.4514636302250764E-3</v>
       </c>
       <c r="Y13">
         <f t="shared" si="14"/>
-        <v>-0.11091871839465454</v>
+        <v>-0.10996908138048353</v>
       </c>
       <c r="Z13">
         <f t="shared" si="15"/>
-        <v>2.4188308208469245E-4</v>
+        <v>2.4047388495504661E-4</v>
       </c>
       <c r="AA13">
         <f t="shared" si="16"/>
-        <v>0.691689788527036</v>
+        <v>0.69399395771806405</v>
       </c>
       <c r="AB13">
         <f t="shared" si="17"/>
-        <v>-4.6110355218392964E-4</v>
+        <v>4.6669525630978925E-4</v>
       </c>
       <c r="AC13">
         <f t="shared" si="18"/>
-        <v>412.83561794188722</v>
+        <v>14.793363338056425</v>
       </c>
       <c r="AD13">
         <f t="shared" si="19"/>
-        <v>17.839146984488295</v>
+        <v>0.63924132037940651</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="0"/>
-        <v>50.349551223086422</v>
+        <f t="shared" si="1"/>
+        <v>1.8042028661781988</v>
       </c>
       <c r="AF13">
         <f t="shared" si="20"/>
-        <v>2.1762506998530204</v>
+        <v>7.798295346510889E-2</v>
       </c>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.25">
@@ -5156,7 +5436,7 @@
         <v>246</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.684387141358123</v>
       </c>
       <c r="K14">
@@ -5168,84 +5448,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>194.2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16.011246047700347</v>
       </c>
       <c r="O14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.03</v>
       </c>
       <c r="P14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="6"/>
-        <v>0.97538999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.99039600000000005</v>
       </c>
       <c r="R14">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S14">
-        <f t="shared" si="8"/>
-        <v>1.3969200593090501</v>
+        <f t="shared" si="9"/>
+        <v>1.4074388927466799</v>
       </c>
       <c r="T14">
-        <f t="shared" si="9"/>
-        <v>1.2212072805007702E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.2496619550390283E-3</v>
       </c>
       <c r="U14">
-        <f t="shared" si="10"/>
-        <v>337.39927382694674</v>
+        <f t="shared" si="0"/>
+        <v>11.803353116586731</v>
       </c>
       <c r="V14">
         <f t="shared" si="11"/>
-        <v>13.912883230466896</v>
+        <v>0.48671997086275159</v>
       </c>
       <c r="W14">
         <f t="shared" si="12"/>
-        <v>0.69824324842357199</v>
+        <v>0.70368667876386304</v>
       </c>
       <c r="X14">
         <f t="shared" si="13"/>
-        <v>1.3928956114982417E-3</v>
+        <v>1.4080008492240053E-3</v>
       </c>
       <c r="Y14">
         <f t="shared" si="14"/>
-        <v>-0.10453763913181124</v>
+        <v>-0.10372897900831408</v>
       </c>
       <c r="Z14">
         <f t="shared" si="15"/>
-        <v>2.0853766808605936E-4</v>
+        <v>2.0755045525290607E-4</v>
       </c>
       <c r="AA14">
         <f t="shared" si="16"/>
-        <v>0.70728150489749864</v>
+        <v>0.70927570356967229</v>
       </c>
       <c r="AB14">
         <f t="shared" si="17"/>
-        <v>-4.4859614465804487E-4</v>
+        <v>4.5341214906498685E-4</v>
       </c>
       <c r="AC14">
         <f t="shared" si="18"/>
-        <v>401.18805398286935</v>
+        <v>14.015153488066558</v>
       </c>
       <c r="AD14">
         <f t="shared" si="19"/>
-        <v>16.543745183584701</v>
+        <v>0.57794255176649145</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="0"/>
-        <v>46.315943929882032</v>
+        <f t="shared" si="1"/>
+        <v>1.6180069587757435</v>
       </c>
       <c r="AF14">
         <f t="shared" si="20"/>
-        <v>1.9103765487414646</v>
+        <v>6.6737481990531103E-2</v>
       </c>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.25">
@@ -5271,7 +5551,7 @@
         <v>218</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.7648230602334</v>
       </c>
       <c r="K15">
@@ -5283,84 +5563,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>166.2</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.111584959890871</v>
       </c>
       <c r="O15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83.03</v>
       </c>
       <c r="P15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="6"/>
-        <v>1.0793900000000001</v>
+        <f t="shared" si="7"/>
+        <v>1.095996</v>
       </c>
       <c r="R15">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S15">
-        <f t="shared" si="8"/>
-        <v>1.4714220237919506</v>
+        <f t="shared" si="9"/>
+        <v>1.4836465994353236</v>
       </c>
       <c r="T15">
-        <f t="shared" si="9"/>
-        <v>1.282991496183519E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.3118727838324401E-3</v>
       </c>
       <c r="U15">
-        <f t="shared" si="10"/>
-        <v>296.71192059962965</v>
+        <f t="shared" si="0"/>
+        <v>10.109875150507857</v>
       </c>
       <c r="V15">
         <f t="shared" si="11"/>
-        <v>13.491893655907806</v>
+        <v>0.45971034124003735</v>
       </c>
       <c r="W15">
         <f t="shared" si="12"/>
-        <v>0.73356928369084862</v>
+        <v>0.73871769760880823</v>
       </c>
       <c r="X15">
         <f t="shared" si="13"/>
-        <v>1.3497989368768306E-3</v>
+        <v>1.3635950400086388E-3</v>
       </c>
       <c r="Y15">
         <f t="shared" si="14"/>
-        <v>-9.9503485700320901E-2</v>
+        <v>-9.8810006808014314E-2</v>
       </c>
       <c r="Z15">
         <f t="shared" si="15"/>
-        <v>1.8309068032138978E-4</v>
+        <v>1.8239286214851013E-4</v>
       </c>
       <c r="AA15">
         <f t="shared" si="16"/>
-        <v>0.71976313764106004</v>
+        <v>0.72149509658004651</v>
       </c>
       <c r="AB15">
         <f t="shared" si="17"/>
-        <v>-4.3376455307051799E-4</v>
+        <v>4.3793929839250513E-4</v>
       </c>
       <c r="AC15">
         <f t="shared" si="18"/>
-        <v>349.73588385855419</v>
+        <v>11.902250886015437</v>
       </c>
       <c r="AD15">
         <f t="shared" si="19"/>
-        <v>15.903314386307441</v>
+        <v>0.5412242591047528</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="0"/>
-        <v>38.381564682894513</v>
+        <f t="shared" si="1"/>
+        <v>1.3062057207672673</v>
       </c>
       <c r="AF15">
         <f t="shared" si="20"/>
-        <v>1.7455771347332034</v>
+        <v>5.9405773414348294E-2</v>
       </c>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.25">
@@ -5386,7 +5666,7 @@
         <v>161</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.68857754044952</v>
       </c>
       <c r="K16">
@@ -5398,84 +5678,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109.2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.090454537562858</v>
       </c>
       <c r="O16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91.03</v>
       </c>
       <c r="P16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="6"/>
-        <v>1.1833899999999999</v>
+        <f t="shared" si="7"/>
+        <v>1.2015960000000001</v>
       </c>
       <c r="R16">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S16">
-        <f t="shared" si="8"/>
-        <v>1.5493262703833561</v>
+        <f t="shared" si="9"/>
+        <v>1.5632763502388183</v>
       </c>
       <c r="T16">
-        <f t="shared" si="9"/>
-        <v>1.3358806214694432E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.3650103199064783E-3</v>
       </c>
       <c r="U16">
-        <f t="shared" si="10"/>
-        <v>229.69738543164669</v>
+        <f t="shared" si="0"/>
+        <v>7.6245497639488269</v>
       </c>
       <c r="V16">
         <f t="shared" si="11"/>
-        <v>13.768999388539422</v>
+        <v>0.45704695407070722</v>
       </c>
       <c r="W16">
         <f t="shared" si="12"/>
-        <v>0.7638094200178952</v>
+        <v>0.76863953057080081</v>
       </c>
       <c r="X16">
         <f t="shared" si="13"/>
-        <v>1.3069250374214006E-3</v>
+        <v>1.3194468506410137E-3</v>
       </c>
       <c r="Y16">
         <f t="shared" si="14"/>
-        <v>-9.5564022669708454E-2</v>
+        <v>-9.4963500869805331E-2</v>
       </c>
       <c r="Z16">
         <f t="shared" si="15"/>
-        <v>1.6351593817842957E-4</v>
+        <v>1.6301437431335476E-4</v>
       </c>
       <c r="AA16">
         <f t="shared" si="16"/>
-        <v>0.72964243091911196</v>
+        <v>0.73115705097237815</v>
       </c>
       <c r="AB16">
         <f t="shared" si="17"/>
-        <v>-4.181796853068889E-4</v>
+        <v>4.218215637066731E-4</v>
       </c>
       <c r="AC16">
         <f t="shared" si="18"/>
-        <v>268.90632099098207</v>
+        <v>8.9167967428209494</v>
       </c>
       <c r="AD16">
         <f t="shared" si="19"/>
-        <v>16.119527309744754</v>
+        <v>0.53451575559311904</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="0"/>
-        <v>28.184396482543185</v>
+        <f t="shared" si="1"/>
+        <v>0.93458024276916596</v>
       </c>
       <c r="AF16">
         <f t="shared" si="20"/>
-        <v>1.6896355072410416</v>
+        <v>5.6027498968439594E-2</v>
       </c>
     </row>
     <row r="17" spans="3:32" x14ac:dyDescent="0.25">
@@ -5501,7 +5781,7 @@
         <v>160</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.649110640673518</v>
       </c>
       <c r="K17">
@@ -5513,84 +5793,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108.2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.052202879207787</v>
       </c>
       <c r="O17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99.23</v>
       </c>
       <c r="P17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="6"/>
-        <v>1.28999</v>
+        <f t="shared" si="7"/>
+        <v>1.309836</v>
       </c>
       <c r="R17">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S17">
-        <f t="shared" si="8"/>
-        <v>1.6321991913060121</v>
+        <f t="shared" si="9"/>
+        <v>1.6479291085771863</v>
       </c>
       <c r="T17">
-        <f t="shared" si="9"/>
-        <v>1.3822793657787113E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.4115348858513496E-3</v>
       </c>
       <c r="U17">
-        <f t="shared" si="10"/>
-        <v>218.9924481615412</v>
+        <f t="shared" si="0"/>
+        <v>7.0800431829732222</v>
       </c>
       <c r="V17">
         <f t="shared" si="11"/>
-        <v>13.209726553393546</v>
+        <v>0.42707174671599873</v>
       </c>
       <c r="W17">
         <f t="shared" si="12"/>
-        <v>0.79033858543197055</v>
+        <v>0.794837589300735</v>
       </c>
       <c r="X17">
         <f t="shared" si="13"/>
-        <v>1.2634069993216848E-3</v>
+        <v>1.2746871754042734E-3</v>
       </c>
       <c r="Y17">
         <f t="shared" si="14"/>
-        <v>-9.2356240825609975E-2</v>
+        <v>-9.1833478577860089E-2</v>
       </c>
       <c r="Z17">
         <f t="shared" si="15"/>
-        <v>1.4763738382624932E-4</v>
+        <v>1.4727405823741291E-4</v>
       </c>
       <c r="AA17">
         <f t="shared" si="16"/>
-        <v>0.73775958151715082</v>
+        <v>0.73908860836880041</v>
       </c>
       <c r="AB17">
         <f t="shared" si="17"/>
-        <v>-4.0213037646072132E-4</v>
+        <v>4.0530995856533905E-4</v>
       </c>
       <c r="AC17">
         <f t="shared" si="18"/>
-        <v>254.95979978289054</v>
+        <v>8.2354560210012693</v>
       </c>
       <c r="AD17">
         <f t="shared" si="19"/>
-        <v>15.379450939671088</v>
+        <v>0.49677195942174412</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="0"/>
-        <v>25.594710034552314</v>
+        <f t="shared" si="1"/>
+        <v>0.82673468146479323</v>
       </c>
       <c r="AF17">
         <f t="shared" si="20"/>
-        <v>1.5439980899933015</v>
+        <v>4.9872713886293905E-2</v>
       </c>
     </row>
     <row r="18" spans="3:32" x14ac:dyDescent="0.25">
@@ -5616,7 +5896,7 @@
         <v>119</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.908712114635714</v>
       </c>
       <c r="K18">
@@ -5628,84 +5908,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>67.2</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.373653766490344</v>
       </c>
       <c r="O18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107.23</v>
       </c>
       <c r="P18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="6"/>
-        <v>1.3939900000000001</v>
+        <f t="shared" si="7"/>
+        <v>1.4154360000000001</v>
       </c>
       <c r="R18">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S18">
-        <f t="shared" si="8"/>
-        <v>1.715578071700615</v>
+        <f t="shared" si="9"/>
+        <v>1.7330490674230781</v>
       </c>
       <c r="T18">
-        <f t="shared" si="9"/>
-        <v>1.4211234687108428E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.450416049801287E-3</v>
       </c>
       <c r="U18">
-        <f t="shared" si="10"/>
-        <v>166.02117664100692</v>
+        <f t="shared" si="0"/>
+        <v>5.2340044608476921</v>
       </c>
       <c r="V18">
         <f t="shared" si="11"/>
-        <v>14.050162780108879</v>
+        <v>0.44294730607422922</v>
       </c>
       <c r="W18">
         <f t="shared" si="12"/>
-        <v>0.81254827337479796</v>
+        <v>0.81673163593957199</v>
       </c>
       <c r="X18">
         <f t="shared" si="13"/>
-        <v>1.2216188945712969E-3</v>
+        <v>1.2317703320185614E-3</v>
       </c>
       <c r="Y18">
         <f t="shared" si="14"/>
-        <v>-8.9831832915923518E-2</v>
+        <v>-8.9371707324592431E-2</v>
       </c>
       <c r="Z18">
         <f t="shared" si="15"/>
-        <v>1.3505691664111736E-4</v>
+        <v>1.3478774760284157E-4</v>
       </c>
       <c r="AA18">
         <f t="shared" si="16"/>
-        <v>0.74419351088227026</v>
+        <v>0.74537060214434148</v>
       </c>
       <c r="AB18">
         <f t="shared" si="17"/>
-        <v>-3.867737813182309E-4</v>
+        <v>3.8956731206878727E-4</v>
       </c>
       <c r="AC18">
         <f t="shared" si="18"/>
-        <v>192.45116662870089</v>
+        <v>6.0624470503614747</v>
       </c>
       <c r="AD18">
         <f t="shared" si="19"/>
-        <v>16.286976278212119</v>
+        <v>0.51305982097001335</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="0"/>
-        <v>18.584992711512978</v>
+        <f t="shared" si="1"/>
+        <v>0.58544999346394411</v>
       </c>
       <c r="AF18">
         <f t="shared" si="20"/>
-        <v>1.5728751178709868</v>
+        <v>4.9547504250327362E-2</v>
       </c>
     </row>
     <row r="19" spans="3:32" x14ac:dyDescent="0.25">
@@ -5731,7 +6011,7 @@
         <v>70</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3666002653407556</v>
       </c>
       <c r="K19">
@@ -5743,84 +6023,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.200000000000003</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.964373932405989</v>
       </c>
       <c r="O19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115.13</v>
       </c>
       <c r="P19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="6"/>
-        <v>1.4966899999999999</v>
+        <f t="shared" si="7"/>
+        <v>1.5197159999999998</v>
       </c>
       <c r="R19">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S19">
-        <f t="shared" si="8"/>
-        <v>1.8000224876650845</v>
+        <f t="shared" si="9"/>
+        <v>1.8192132147321267</v>
       </c>
       <c r="T19">
-        <f t="shared" si="9"/>
-        <v>1.4542416068076176E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.4835153776870441E-3</v>
       </c>
       <c r="U19">
-        <f t="shared" si="10"/>
-        <v>83.383178418139906</v>
+        <f t="shared" si="0"/>
+        <v>2.5657401779135003</v>
       </c>
       <c r="V19">
         <f t="shared" si="11"/>
-        <v>20.535195059561303</v>
+        <v>0.6318777643092135</v>
       </c>
       <c r="W19">
         <f t="shared" si="12"/>
-        <v>0.83148405659167335</v>
+        <v>0.83536992128972254</v>
       </c>
       <c r="X19">
         <f t="shared" si="13"/>
-        <v>1.1812449219512772E-3</v>
+        <v>1.1903724570511425E-3</v>
       </c>
       <c r="Y19">
         <f t="shared" si="14"/>
-        <v>-8.778604971589056E-2</v>
+        <v>-8.7377698034942428E-2</v>
       </c>
       <c r="Z19">
         <f t="shared" si="15"/>
-        <v>1.2471294503242855E-4</v>
+        <v>1.2451011516041147E-4</v>
       </c>
       <c r="AA19">
         <f t="shared" si="16"/>
-        <v>0.74943736891617474</v>
+        <v>0.75048727442789132</v>
       </c>
       <c r="AB19">
         <f t="shared" si="17"/>
-        <v>-3.7210048446095805E-4</v>
+        <v>3.7456486366746938E-4</v>
       </c>
       <c r="AC19">
         <f t="shared" si="18"/>
-        <v>96.318735732428436</v>
+        <v>2.9616996140072951</v>
       </c>
       <c r="AD19">
         <f t="shared" si="19"/>
-        <v>23.720911922428972</v>
+        <v>0.72939306462695386</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="0"/>
-        <v>8.9766960677636067</v>
+        <f t="shared" si="1"/>
+        <v>0.27602394359506993</v>
       </c>
       <c r="AF19">
         <f t="shared" si="20"/>
-        <v>2.2107434698128703</v>
+        <v>6.7978033889408762E-2</v>
       </c>
     </row>
     <row r="20" spans="3:32" x14ac:dyDescent="0.25">
@@ -5846,7 +6126,7 @@
         <v>64</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K20">
@@ -5858,84 +6138,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.200000000000003</v>
       </c>
       <c r="N20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6232244549240402</v>
       </c>
       <c r="O20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123.03</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="6"/>
-        <v>1.5993899999999999</v>
+        <f t="shared" si="7"/>
+        <v>1.623996</v>
       </c>
       <c r="R20">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S20">
-        <f t="shared" si="8"/>
-        <v>1.8862789751518727</v>
+        <f t="shared" si="9"/>
+        <v>1.907187197947805</v>
       </c>
       <c r="T20">
-        <f t="shared" si="9"/>
-        <v>1.4829656515570166E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.5121847395540922E-3</v>
       </c>
       <c r="U20">
-        <f t="shared" si="10"/>
-        <v>66.040660368949574</v>
+        <f t="shared" si="0"/>
+        <v>1.9846812935402924</v>
       </c>
       <c r="V20">
         <f t="shared" si="11"/>
-        <v>23.339527513173593</v>
+        <v>0.70140916046671831</v>
       </c>
       <c r="W20">
         <f t="shared" si="12"/>
-        <v>0.84790745222149644</v>
+        <v>0.85151368557185791</v>
       </c>
       <c r="X20">
         <f t="shared" si="13"/>
-        <v>1.1419656052459259E-3</v>
+        <v>1.1501629882102321E-3</v>
       </c>
       <c r="Y20">
         <f t="shared" si="14"/>
-        <v>-8.6085693124512516E-2</v>
+        <v>-8.5721112844952929E-2</v>
       </c>
       <c r="Z20">
         <f t="shared" si="15"/>
-        <v>1.15940602237175E-4</v>
+        <v>1.1578586812288813E-4</v>
       </c>
       <c r="AA20">
         <f t="shared" si="16"/>
-        <v>0.75381613937085656</v>
+        <v>0.75475741389993944</v>
       </c>
       <c r="AB20">
         <f t="shared" si="17"/>
-        <v>-3.5802112767410673E-4</v>
+        <v>3.6020019921562899E-4</v>
       </c>
       <c r="AC20">
         <f t="shared" si="18"/>
-        <v>76.063917942425121</v>
+        <v>2.2844785384676696</v>
       </c>
       <c r="AD20">
         <f t="shared" si="19"/>
-        <v>26.881867874106472</v>
+        <v>0.80736113361263739</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="0"/>
-        <v>6.8576162665727045</v>
+        <f t="shared" si="1"/>
+        <v>0.20595937745266049</v>
       </c>
       <c r="AF20">
         <f t="shared" si="20"/>
-        <v>2.4235637607448441</v>
+        <v>7.2788512852641304E-2</v>
       </c>
     </row>
     <row r="21" spans="3:32" x14ac:dyDescent="0.25">
@@ -5961,7 +6241,7 @@
         <v>60</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.745966692414834</v>
       </c>
       <c r="K21">
@@ -5973,84 +6253,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2000000000000028</v>
       </c>
       <c r="N21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3880867902043086</v>
       </c>
       <c r="O21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>131.03</v>
       </c>
       <c r="P21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="6"/>
-        <v>1.70339</v>
+        <f t="shared" si="7"/>
+        <v>1.7295959999999999</v>
       </c>
       <c r="R21">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S21">
-        <f t="shared" si="8"/>
-        <v>1.9752309971494473</v>
+        <f t="shared" si="9"/>
+        <v>1.9978744513146967</v>
       </c>
       <c r="T21">
-        <f t="shared" si="9"/>
-        <v>1.5082691243810146E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.5374099861507025E-3</v>
       </c>
       <c r="U21">
-        <f t="shared" si="10"/>
-        <v>52.463656961204862</v>
+        <f t="shared" si="0"/>
+        <v>1.5404602401019358</v>
       </c>
       <c r="V21">
         <f t="shared" si="11"/>
-        <v>26.83353976896105</v>
+        <v>0.7878978265937594</v>
       </c>
       <c r="W21">
         <f t="shared" si="12"/>
-        <v>0.86237508547519026</v>
+        <v>0.86571806294526832</v>
       </c>
       <c r="X21">
         <f t="shared" si="13"/>
-        <v>1.1034714470429098E-3</v>
+        <v>1.1108210447483523E-3</v>
       </c>
       <c r="Y21">
         <f t="shared" si="14"/>
-        <v>-8.4641476730170376E-2</v>
+        <v>-8.4314632966762629E-2</v>
       </c>
       <c r="Z21">
         <f t="shared" si="15"/>
-        <v>1.0830490627616456E-4</v>
+        <v>1.0818587793013893E-4</v>
       </c>
       <c r="AA21">
         <f t="shared" si="16"/>
-        <v>0.75754980604597089</v>
+        <v>0.75839663124398315</v>
       </c>
       <c r="AB21">
         <f t="shared" si="17"/>
-        <v>-3.4442203034540109E-4</v>
+        <v>3.4635043726353375E-4</v>
       </c>
       <c r="AC21">
         <f t="shared" si="18"/>
-        <v>60.277185253077569</v>
+        <v>1.7688959837286091</v>
       </c>
       <c r="AD21">
         <f t="shared" si="19"/>
-        <v>30.829921151000896</v>
+        <v>0.90473574303451076</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="0"/>
-        <v>5.2658392038014012</v>
+        <f t="shared" si="1"/>
+        <v>0.15453146624973457</v>
       </c>
       <c r="AF21">
         <f t="shared" si="20"/>
-        <v>2.6933156972346439</v>
+        <v>7.9038119060676704E-2</v>
       </c>
     </row>
     <row r="22" spans="3:32" x14ac:dyDescent="0.25">
@@ -6076,7 +6356,7 @@
         <v>44</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6332495807107996</v>
       </c>
       <c r="K22">
@@ -6088,39 +6368,39 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3729234364667047</v>
       </c>
       <c r="O22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138.93</v>
       </c>
       <c r="P22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="6"/>
-        <v>1.80609</v>
+        <f t="shared" si="7"/>
+        <v>1.8338760000000001</v>
       </c>
       <c r="R22">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S22">
-        <f t="shared" si="8"/>
-        <v>2.064451764537016</v>
+        <f t="shared" si="9"/>
+        <v>2.0888037685182397</v>
       </c>
       <c r="T22">
-        <f t="shared" si="9"/>
-        <v>1.5300910950960022E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.5591415423861729E-3</v>
       </c>
       <c r="U22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V22">
@@ -6129,27 +6409,27 @@
       </c>
       <c r="W22">
         <f t="shared" si="12"/>
-        <v>0.87485211862290357</v>
+        <v>0.87795513759577293</v>
       </c>
       <c r="X22">
         <f t="shared" si="13"/>
-        <v>1.0668420274704421E-3</v>
+        <v>1.0734427824384651E-3</v>
       </c>
       <c r="Y22">
         <f t="shared" si="14"/>
-        <v>-8.3434330415549679E-2</v>
+        <v>-8.3139442557182475E-2</v>
       </c>
       <c r="Z22">
         <f t="shared" si="15"/>
-        <v>1.0174433864465638E-4</v>
+        <v>1.0165147480469004E-4</v>
       </c>
       <c r="AA22">
         <f t="shared" si="16"/>
-        <v>0.76068082236103496</v>
+        <v>0.76144710049855546</v>
       </c>
       <c r="AB22">
         <f t="shared" si="17"/>
-        <v>-3.316622977494156E-4</v>
+        <v>3.3337565543888384E-4</v>
       </c>
       <c r="AC22">
         <f t="shared" si="18"/>
@@ -6160,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF22">
@@ -6191,7 +6471,7 @@
         <v>66</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1240384046359608</v>
       </c>
       <c r="K23">
@@ -6203,84 +6483,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.200000000000003</v>
       </c>
       <c r="N23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.7384209099813912</v>
       </c>
       <c r="O23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>147.13</v>
       </c>
       <c r="P23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="6"/>
-        <v>1.9126899999999998</v>
+        <f t="shared" si="7"/>
+        <v>1.942116</v>
       </c>
       <c r="R23">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S23">
-        <f t="shared" si="8"/>
-        <v>2.1583287599668406</v>
+        <f t="shared" si="9"/>
+        <v>2.1844483416771383</v>
       </c>
       <c r="T23">
-        <f t="shared" si="9"/>
-        <v>1.5499212377956073E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.5788708475323739E-3</v>
       </c>
       <c r="U23">
-        <f t="shared" si="10"/>
-        <v>65.152421056511045</v>
+        <f t="shared" si="0"/>
+        <v>1.8295138419282235</v>
       </c>
       <c r="V23">
         <f t="shared" si="11"/>
-        <v>20.046841361158094</v>
+        <v>0.56292572843819011</v>
       </c>
       <c r="W23">
         <f t="shared" si="12"/>
-        <v>0.88619029476741318</v>
+        <v>0.88906474140236036</v>
       </c>
       <c r="X23">
         <f t="shared" si="13"/>
-        <v>1.0303534932334371E-3</v>
+        <v>1.0362629201803202E-3</v>
       </c>
       <c r="Y23">
         <f t="shared" si="14"/>
-        <v>-8.2366847347481328E-2</v>
+        <v>-8.2100546035367969E-2</v>
       </c>
       <c r="Z23">
         <f t="shared" si="15"/>
-        <v>9.5766077999507519E-5</v>
+        <v>9.5693539087842353E-5</v>
       </c>
       <c r="AA23">
         <f t="shared" si="16"/>
-        <v>0.7634573613709128</v>
+        <v>0.76415115248489496</v>
       </c>
       <c r="AB23">
         <f t="shared" si="17"/>
-        <v>-3.1911916754596856E-4</v>
+        <v>3.2063865125039415E-4</v>
       </c>
       <c r="AC23">
         <f t="shared" si="18"/>
-        <v>74.565539629592209</v>
+        <v>2.0928883641484455</v>
       </c>
       <c r="AD23">
         <f t="shared" si="19"/>
-        <v>22.943182533349564</v>
+        <v>0.64396396124533495</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="0"/>
-        <v>6.1473444410880136</v>
+        <f t="shared" si="1"/>
+        <v>0.17254224558793141</v>
       </c>
       <c r="AF23">
         <f t="shared" si="20"/>
-        <v>1.8914877034426192</v>
+        <v>5.3089841062162954E-2</v>
       </c>
     </row>
     <row r="24" spans="3:32" x14ac:dyDescent="0.25">
@@ -6306,7 +6586,7 @@
         <v>41</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4031242374328485</v>
       </c>
       <c r="K24">
@@ -6318,39 +6598,39 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1665891468675671</v>
       </c>
       <c r="O24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>155.13</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="6"/>
-        <v>2.0166899999999996</v>
+        <f t="shared" si="7"/>
+        <v>2.0477159999999999</v>
       </c>
       <c r="R24">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S24">
-        <f t="shared" si="8"/>
-        <v>2.2510083420769456</v>
+        <f t="shared" si="9"/>
+        <v>2.2788463784678421</v>
       </c>
       <c r="T24">
-        <f t="shared" si="9"/>
-        <v>1.5669122652294165E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.5957611690246537E-3</v>
       </c>
       <c r="U24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V24">
@@ -6359,27 +6639,27 @@
       </c>
       <c r="W24">
         <f t="shared" si="12"/>
-        <v>0.89590516494454808</v>
+        <v>0.8985757088973938</v>
       </c>
       <c r="X24">
         <f t="shared" si="13"/>
-        <v>9.9629564741910911E-4</v>
+        <v>1.0016073155806886E-3</v>
       </c>
       <c r="Y24">
         <f t="shared" si="14"/>
-        <v>-8.1473691174048402E-2</v>
+        <v>-8.1231553454180747E-2</v>
       </c>
       <c r="Z24">
         <f t="shared" si="15"/>
-        <v>9.0603210107508675E-5</v>
+        <v>9.0545646171013663E-5</v>
       </c>
       <c r="AA24">
         <f t="shared" si="16"/>
-        <v>0.76578608257862979</v>
+        <v>0.7664182878509419</v>
       </c>
       <c r="AB24">
         <f t="shared" si="17"/>
-        <v>-3.0755376749438425E-4</v>
+        <v>3.0890886670538735E-4</v>
       </c>
       <c r="AC24">
         <f t="shared" si="18"/>
@@ -6390,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF24">
@@ -6421,7 +6701,7 @@
         <v>54</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3484692283495345</v>
       </c>
       <c r="K25">
@@ -6433,84 +6713,84 @@
         <v>3.2186953878862163</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2000000000000028</v>
       </c>
       <c r="N25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.0224684480526314</v>
       </c>
       <c r="O25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>162.83000000000001</v>
       </c>
       <c r="P25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13453624047073712</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="6"/>
-        <v>2.1167899999999999</v>
+        <f t="shared" si="7"/>
+        <v>2.149356</v>
       </c>
       <c r="R25">
-        <f t="shared" si="7"/>
-        <v>1.7489711261195824E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.7758783742137299E-3</v>
       </c>
       <c r="S25">
-        <f t="shared" si="8"/>
-        <v>2.3411108269580061</v>
+        <f t="shared" si="9"/>
+        <v>2.3705972274378455</v>
       </c>
       <c r="T25">
-        <f t="shared" si="9"/>
-        <v>1.5813880092422807E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.6101405986254167E-3</v>
       </c>
       <c r="U25">
-        <f t="shared" si="10"/>
-        <v>24.377049148769757</v>
+        <f>SQRT(M25/Q25/S25)</f>
+        <v>0.65709517362918624</v>
       </c>
       <c r="V25">
         <f t="shared" si="11"/>
-        <v>44.446390006316534</v>
+        <v>1.1980739828556888</v>
       </c>
       <c r="W25">
         <f t="shared" si="12"/>
-        <v>0.90418188478095918</v>
+        <v>0.90667278908574267</v>
       </c>
       <c r="X25">
         <f t="shared" si="13"/>
-        <v>9.6495732212638786E-4</v>
+        <v>9.6975793465938777E-4</v>
       </c>
       <c r="Y25">
         <f t="shared" si="14"/>
-        <v>-8.0727895524703761E-2</v>
+        <v>-8.0506111585779805E-2</v>
       </c>
       <c r="Z25">
         <f t="shared" si="15"/>
-        <v>8.6154097087764832E-5</v>
+        <v>8.610762497638047E-5</v>
       </c>
       <c r="AA25">
         <f t="shared" si="16"/>
-        <v>0.76773450889837613</v>
+        <v>0.76831461792184952</v>
       </c>
       <c r="AB25">
         <f t="shared" si="17"/>
-        <v>-2.9702543387208694E-4</v>
+        <v>2.9824218967123564E-4</v>
       </c>
       <c r="AC25">
         <f t="shared" si="18"/>
-        <v>27.821183573273188</v>
+        <v>0.74965031745003363</v>
       </c>
       <c r="AD25">
         <f t="shared" si="19"/>
-        <v>50.726040504246534</v>
+        <v>1.3668287071788341</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="0"/>
-        <v>2.1802605187468145</v>
+        <f t="shared" si="1"/>
+        <v>5.8747787839352222E-2</v>
       </c>
       <c r="AF25">
         <f t="shared" si="20"/>
-        <v>3.9752437537882019</v>
+        <v>0.1071141612217141</v>
       </c>
     </row>
   </sheetData>
@@ -6523,7 +6803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F25"/>
     </sheetView>
   </sheetViews>
